--- a/Supporting Files/Database Table specification.xlsx
+++ b/Supporting Files/Database Table specification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geordie\Documents\Dev\Web\Sites\100hrs\Supporting Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F59013-EA90-48A7-B709-8E8E64CB7A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D043C7B9-0F38-418F-A82D-A3EE8C82C73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{4AFB6B44-6E44-426D-ADED-BF3706F5ADD4}"/>
+    <workbookView xWindow="28455" yWindow="630" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{4AFB6B44-6E44-426D-ADED-BF3706F5ADD4}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTE" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="109">
   <si>
     <t>NULL</t>
   </si>
@@ -233,9 +233,6 @@
     <t>[LookupID]</t>
   </si>
   <si>
-    <t>[ID]</t>
-  </si>
-  <si>
     <t>[Line1]</t>
   </si>
   <si>
@@ -351,6 +348,24 @@
   </si>
   <si>
     <t>[Active]</t>
+  </si>
+  <si>
+    <t>[SecurityUserID]</t>
+  </si>
+  <si>
+    <t>[Password]</t>
+  </si>
+  <si>
+    <t>[Salt]</t>
+  </si>
+  <si>
+    <t>[PasswordLastChanged]</t>
+  </si>
+  <si>
+    <t>[BadAttempts]</t>
+  </si>
+  <si>
+    <t>[LoginEmail]</t>
   </si>
 </sst>
 </file>
@@ -442,10 +457,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -453,12 +467,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,51 +795,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>77</v>
+      <c r="G3" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -834,350 +846,349 @@
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="9" t="str">
+      <c r="F4" s="7" t="str">
         <f>_xlfn.TEXTJOIN(" ",TRUE,B4:E4)</f>
         <v>[NoteID] INT IDENTITY(1,1) NOT NULL</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="10" t="str">
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8" t="str">
         <f t="shared" ref="F5:F22" si="0">_xlfn.TEXTJOIN(" ",TRUE,B5:E5)</f>
         <v>[CreatedDateTime] DATETIME NOT NULL</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>[CreatedBy] INT NOT NULL</v>
+      </c>
+      <c r="H6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>[UpdatedDateTime] DATETIME NULL</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>[UpdatedBy] INT NULL</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>[Status] INT NOT NULL</v>
+      </c>
+      <c r="H9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>[MessageType] INT NOT NULL</v>
+      </c>
+      <c r="H10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>[Subject] VARCHAR(50) NOT NULL</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>[Body] VARCHAR(5000) NULL</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>[Attachment] BIT NOT NULL</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>[PackagingDescription] VARCHAR(100) NULL</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>[PackagingCondition] VARCHAR(100) NULL</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>[DeliveryDateTime] DATETIME NOT NULL</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>[StorageLocation] INT NOT NULL</v>
+      </c>
+      <c r="H17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>[IsCollected] BIT NOT NULL</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>[CollectedBy] INT NOT NULL</v>
+      </c>
+      <c r="H19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>[CollectedDateTime] DATETIME NOT NULL</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>[ValidFromDateTime] DATETIME NULL</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>[ValidToDateTime] DATETIME NULL</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>[CreatedBy] INT NOT NULL</v>
-      </c>
-      <c r="H6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>[UpdatedDateTime] DATETIME NULL</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>[UpdatedBy] INT NULL</v>
-      </c>
-      <c r="H8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>[Status] INT NOT NULL</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>[MessageType] INT NOT NULL</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>[Subject] VARCHAR(50) NOT NULL</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>[Body] VARCHAR(5000) NULL</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>[Attachment] BIT NOT NULL</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>[PackagingDescription] VARCHAR(100) NULL</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>[PackagingCondition] VARCHAR(100) NULL</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>[DeliveryDateTime] DATETIME NOT NULL</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>[StorageLocation] INT NOT NULL</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>[IsCollected] BIT NOT NULL</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>[CollectedBy] INT NOT NULL</v>
-      </c>
-      <c r="H19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>[CollectedDateTime] DATETIME NOT NULL</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>[ValidFromDateTime] DATETIME NULL</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>[ValidToDateTime] DATETIME NULL</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1186,102 +1197,102 @@
       <c r="E26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="9" t="str">
+      <c r="F26" s="7" t="str">
         <f>_xlfn.TEXTJOIN(" ",TRUE,B26:E26)</f>
         <v>[RecipientID] INT IDENTITY(1,1) NOT NULL</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="9" t="str">
+      <c r="F27" s="7" t="str">
         <f t="shared" ref="F27:F29" si="1">_xlfn.TEXTJOIN(" ",TRUE,B27:E27)</f>
         <v>[NoteID] INT NOT NULL</v>
       </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="10" t="str">
+      <c r="C28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8" t="str">
         <f t="shared" si="1"/>
         <v>[UserID] INT NULL</v>
       </c>
       <c r="H28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="10" t="str">
+      <c r="C29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8" t="str">
         <f t="shared" si="1"/>
         <v>[GroupID] INT NULL</v>
       </c>
       <c r="H29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>77</v>
+      <c r="G32" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1290,60 +1301,60 @@
       <c r="E33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="9" t="str">
+      <c r="F33" s="7" t="str">
         <f>_xlfn.TEXTJOIN(" ",TRUE,B33:E33)</f>
         <v>[AttachmentID] INT IDENTITY(1,1) NOT NULL</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="9" t="str">
+      <c r="F34" s="7" t="str">
         <f t="shared" ref="F34:F36" si="2">_xlfn.TEXTJOIN(" ",TRUE,B34:E34)</f>
         <v>[NoteID] INT NOT NULL</v>
       </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="10" t="str">
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="8" t="str">
         <f t="shared" si="2"/>
         <v>[FileType] VARCHAR(5) NOT NULL</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>96</v>
+      <c r="H35" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="10" t="str">
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="8" t="str">
         <f t="shared" si="2"/>
         <v>[FilePath] VARCHAR(1000) NOT NULL</v>
       </c>
@@ -1364,7 +1375,7 @@
   <dimension ref="A2:H54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,40 +1389,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>77</v>
+      <c r="G3" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1420,156 +1431,146 @@
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="9" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B4:E4)</f>
+      <c r="F4" s="7" t="str">
+        <f t="shared" ref="F4:F16" si="0">_xlfn.TEXTJOIN(" ",TRUE,B4:E4)</f>
         <v>[PersonID] INT IDENTITY(1,1) NOT NULL</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>[CreatedDateTime] DATETIME NOT NULL</v>
+      </c>
+      <c r="G5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>[CreatedBy] INT NOT NULL</v>
+      </c>
+      <c r="H6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B5:E5)</f>
-        <v>[CreatedDateTime] DATETIME NOT NULL</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B6:E6)</f>
-        <v>[CreatedBy] INT NOT NULL</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B7:E7)</f>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>[UpdatedDateTime] DATETIME NULL</v>
       </c>
-      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B8:E8)</f>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>[UpdatedBy] INT NULL</v>
       </c>
-      <c r="G8" s="2"/>
       <c r="H8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B9:E9)</f>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>[Status] INT NOT NULL</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>98</v>
+      <c r="G9" t="s">
+        <v>97</v>
       </c>
       <c r="H9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B10:E10)</f>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>[Title] VARCHAR(20) NULL</v>
       </c>
-      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B11:E11)</f>
+      <c r="F11" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>[FirstName] VARCHAR(50) NOT NULL</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E12" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B12:E12)</f>
+      <c r="F12" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>[OtherName] VARCHAR(50) NULL</v>
       </c>
     </row>
@@ -1577,14 +1578,14 @@
       <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E13" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B13:E13)</f>
+      <c r="F13" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>[LastName] VARCHAR(50) NULL</v>
       </c>
     </row>
@@ -1592,14 +1593,14 @@
       <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E14" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B14:E14)</f>
+      <c r="F14" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>[PreferredName] VARCHAR(50) NULL</v>
       </c>
     </row>
@@ -1607,70 +1608,70 @@
       <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B15:E15)</f>
+      <c r="F15" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>[Type] INT NOT NULL</v>
       </c>
       <c r="H15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E16" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B16:E16)</f>
+      <c r="F16" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>[Comments] VARCHAR(5000) NULL</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>77</v>
+      <c r="G19" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1679,12 +1680,12 @@
       <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="9" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B20:E20)</f>
+      <c r="F20" s="7" t="str">
+        <f t="shared" ref="F20:F28" si="1">_xlfn.TEXTJOIN(" ",TRUE,B20:E20)</f>
         <v>[AddressID] INT IDENTITY(1,1) NOT NULL</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1698,192 +1699,180 @@
       <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="9" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B21:E21)</f>
+      <c r="F21" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>[PersonID] INT NOT NULL</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B22:E22)</f>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>[CreatedDateTime] DATETIME NOT NULL</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>76</v>
+      <c r="G22" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B23:E23)</f>
+      <c r="C23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>[CreatedBy] INT NOT NULL</v>
       </c>
-      <c r="G23" s="2"/>
       <c r="H23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>[UpdatedDateTime] DATETIME NULL</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>[UpdatedBy] INT NULL</v>
+      </c>
+      <c r="H25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>[Status] INT NOT NULL</v>
+      </c>
+      <c r="H26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>[Type] INT NOT NULL</v>
+      </c>
+      <c r="H27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B24:E24)</f>
-        <v>[UpdatedDateTime] DATETIME NULL</v>
-      </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B25:E25)</f>
-        <v>[UpdatedBy] INT NULL</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B26:E26)</f>
-        <v>[Status] INT NOT NULL</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B27:E27)</f>
-        <v>[Type] INT NOT NULL</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" t="s">
-        <v>89</v>
-      </c>
-    </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B28:E28)</f>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>[Primary] BIT NOT NULL</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="10" t="str">
-        <f t="shared" ref="F29:F38" si="0">_xlfn.TEXTJOIN(" ",TRUE,B29:E29)</f>
+      <c r="F29" s="8" t="str">
+        <f t="shared" ref="F29:F38" si="2">_xlfn.TEXTJOIN(" ",TRUE,B29:E29)</f>
         <v>[Line1] VARCHAR(50) NOT NULL</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E30" t="s">
         <v>0</v>
       </c>
-      <c r="F30" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="F30" s="8" t="str">
+        <f t="shared" si="2"/>
         <v>[Line2] VARCHAR(50) NULL</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E31" t="s">
         <v>0</v>
       </c>
-      <c r="F31" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="F31" s="8" t="str">
+        <f t="shared" si="2"/>
         <v>[Line3] VARCHAR(50) NULL</v>
       </c>
     </row>
@@ -1891,29 +1880,29 @@
       <c r="B32" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="F32" s="8" t="str">
+        <f t="shared" si="2"/>
         <v>[City] VARCHAR(50) NOT NULL</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="F33" s="8" t="str">
+        <f t="shared" si="2"/>
         <v>[PostCode] VARCHAR(7) NOT NULL</v>
       </c>
     </row>
@@ -1921,29 +1910,29 @@
       <c r="B34" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="F34" s="8" t="str">
+        <f t="shared" si="2"/>
         <v>[County] VARCHAR(50) NOT NULL</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="10" t="str">
-        <f t="shared" ref="F35" si="1">_xlfn.TEXTJOIN(" ",TRUE,B35:E35)</f>
+      <c r="F35" s="8" t="str">
+        <f t="shared" ref="F35" si="3">_xlfn.TEXTJOIN(" ",TRUE,B35:E35)</f>
         <v>[Country] VARCHAR(50) NOT NULL</v>
       </c>
     </row>
@@ -1951,106 +1940,106 @@
       <c r="B36" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E36" t="s">
         <v>0</v>
       </c>
-      <c r="F36" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="F36" s="8" t="str">
+        <f t="shared" si="2"/>
         <v>[Building] INT NULL</v>
       </c>
       <c r="H36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E37" t="s">
         <v>0</v>
       </c>
-      <c r="F37" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="F37" s="8" t="str">
+        <f t="shared" si="2"/>
         <v>[Floor] INT NULL</v>
       </c>
       <c r="H37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E38" t="s">
         <v>0</v>
       </c>
-      <c r="F38" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="F38" s="8" t="str">
+        <f t="shared" si="2"/>
         <v>[Area] INT NULL</v>
       </c>
       <c r="H38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E39" t="s">
         <v>0</v>
       </c>
-      <c r="F39" s="10" t="str">
+      <c r="F39" s="8" t="str">
         <f>_xlfn.TEXTJOIN(" ",TRUE,B39:E39)</f>
         <v>[Comments] VARCHAR(5000) NULL</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
+      <c r="B41" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G42" s="6" t="s">
-        <v>77</v>
+      <c r="G42" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -2059,12 +2048,12 @@
       <c r="E43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="9" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B43:E43)</f>
+      <c r="F43" s="7" t="str">
+        <f t="shared" ref="F43:F54" si="4">_xlfn.TEXTJOIN(" ",TRUE,B43:E43)</f>
         <v>[ContactID] INT IDENTITY(1,1) NOT NULL</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -2078,174 +2067,162 @@
       <c r="E44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="9" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B44:E44)</f>
+      <c r="F44" s="7" t="str">
+        <f t="shared" si="4"/>
         <v>[PersonID] INT NOT NULL</v>
       </c>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
+      <c r="B45" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B45:E45)</f>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>[CreatedDateTime] DATETIME NOT NULL</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>76</v>
+      <c r="G45" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
+      <c r="B46" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B46:E46)</f>
+      <c r="C46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>[CreatedBy] INT NOT NULL</v>
       </c>
-      <c r="G46" s="2"/>
       <c r="H46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
+      <c r="B47" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F47" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B47:E47)</f>
+      <c r="E47" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>[UpdatedDateTime] DATETIME NULL</v>
       </c>
-      <c r="G47" s="2"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
+      <c r="B48" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F48" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B48:E48)</f>
+      <c r="C48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>[UpdatedBy] INT NULL</v>
       </c>
-      <c r="G48" s="2"/>
       <c r="H48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
+      <c r="B49" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B49:E49)</f>
+      <c r="C49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>[Status] INT NOT NULL</v>
       </c>
-      <c r="G49" s="2"/>
       <c r="H49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>[Type] INT NOT NULL</v>
+      </c>
+      <c r="H50" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B50:E50)</f>
-        <v>[Type] INT NOT NULL</v>
-      </c>
-      <c r="G50" s="2"/>
-      <c r="H50" t="s">
-        <v>92</v>
-      </c>
-    </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="B51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B51:E51)</f>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>[Primary] BIT NOT NULL</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E52" t="s">
         <v>0</v>
       </c>
-      <c r="F52" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B52:E52)</f>
+      <c r="F52" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>[Number] VARCHAR(50) NULL</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E53" t="s">
         <v>0</v>
       </c>
-      <c r="F53" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B53:E53)</f>
+      <c r="F53" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>[Email] VARCHAR(50) NULL</v>
       </c>
     </row>
@@ -2253,14 +2230,14 @@
       <c r="B54" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E54" t="s">
         <v>0</v>
       </c>
-      <c r="F54" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B54:E54)</f>
+      <c r="F54" s="8" t="str">
+        <f t="shared" si="4"/>
         <v>[Comments] VARCHAR(5000) NULL</v>
       </c>
     </row>
@@ -2279,8 +2256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180AD1F2-CFE0-4F6D-95C9-7A5C3FDFB272}">
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2288,45 +2265,45 @@
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>77</v>
+      <c r="G3" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2335,214 +2312,199 @@
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="9" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B4:E4)</f>
+      <c r="F4" s="7" t="str">
+        <f t="shared" ref="F4:F11" si="0">_xlfn.TEXTJOIN(" ",TRUE,B4:E4)</f>
         <v>[LookupID] INT IDENTITY(1,1) NOT NULL</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>[CreatedDateTime] DATETIME NOT NULL</v>
+      </c>
+      <c r="G5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>[CreatedBy] INT NOT NULL</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B5:E5)</f>
-        <v>[CreatedDateTime] DATETIME NOT NULL</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B6:E6)</f>
-        <v>[CreatedBy] INT NOT NULL</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B7:E7)</f>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>[UpdatedDateTime] DATETIME NULL</v>
       </c>
-      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B8:E8)</f>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>[UpdatedBy] INT NULL</v>
       </c>
-      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B9:E9)</f>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>[Active] BIT NOT NULL</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B10:E10)</f>
+      <c r="C10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>[SchemaName] VARCHAR(20) NOT NULL</v>
       </c>
-      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B11:E11)</f>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>[TableName] VARCHAR(100) NOT NULL</v>
       </c>
-      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="10" t="str">
-        <f t="shared" ref="F12:F16" si="0">_xlfn.TEXTJOIN(" ",TRUE,B12:E12)</f>
+        <v>71</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="8" t="str">
+        <f t="shared" ref="F12:F16" si="1">_xlfn.TEXTJOIN(" ",TRUE,B12:E12)</f>
         <v>[FieldName] VARCHAR(30) NOT NULL</v>
       </c>
-      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>[ValueName] VARCHAR(50) NOT NULL</v>
       </c>
-      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="10" t="str">
-        <f t="shared" ref="F14" si="1">_xlfn.TEXTJOIN(" ",TRUE,B14:E14)</f>
+        <v>82</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8" t="str">
+        <f t="shared" ref="F14" si="2">_xlfn.TEXTJOIN(" ",TRUE,B14:E14)</f>
         <v>[DisplayValue] VARCHAR(20) NOT NULL</v>
       </c>
-      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>[Value] INT NOT NULL</v>
       </c>
-      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="8" t="str">
+        <f t="shared" si="1"/>
         <v>[SortSequence] INT NOT NULL</v>
       </c>
-      <c r="G16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2554,57 +2516,57 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C66052-4BDE-4E67-A105-213F0B31DD52}">
-  <dimension ref="B2:H9"/>
+  <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>77</v>
+      <c r="G3" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2613,107 +2575,195 @@
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="9" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B4:E4)</f>
-        <v>[ID] INT IDENTITY(1,1) NOT NULL</v>
+      <c r="F4" s="7" t="str">
+        <f t="shared" ref="F4:F9" si="0">_xlfn.TEXTJOIN(" ",TRUE,B4:E4)</f>
+        <v>[SecurityUserID] INT IDENTITY(1,1) NOT NULL</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>[CreatedDateTime] DATETIME NOT NULL</v>
+      </c>
+      <c r="G5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>[CreatedBy] INT NOT NULL</v>
+      </c>
+      <c r="H6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B5:E5)</f>
-        <v>[CreatedDateTime] DATETIME NOT NULL</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B6:E6)</f>
-        <v>[CreatedBy] INT NOT NULL</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>[UpdatedDateTime] DATETIME NULL</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>[UpdatedBy] INT NULL</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>[Status] BIT NOT NULL</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,B10:E10)</f>
+        <v>[PersonID] INT NOT NULL</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="8" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,B11:E11)</f>
+        <v>[LoginEmail] VARCHAR(50) NOT NULL</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="8" t="str">
+        <f t="shared" ref="F12:F15" si="1">_xlfn.TEXTJOIN(" ",TRUE,B12:E12)</f>
+        <v>[Password] VARCHAR(100) NOT NULL</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>[Salt] VARCHAR(100) NOT NULL</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B7:E7)</f>
-        <v>[UpdatedDateTime] DATETIME NULL</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B8:E8)</f>
-        <v>[UpdatedBy] INT NULL</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="10" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,B9:E9)</f>
-        <v>[Status] BIT NOT NULL</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>[PasswordLastChanged] DATETIME NOT NULL</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>[BadAttempts] INT NOT NULL</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
